--- a/biology/Botanique/Plukenetia/Plukenetia.xlsx
+++ b/biology/Botanique/Plukenetia/Plukenetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plukenetia est un genre de plantes à fleurs de la famille des Euphorbiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (15 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 août 2017) :
 Plukenetia conophora Müll. Arg.
-Selon Catalogue of Life                                   (15 août 2017)[3] :
+Selon Catalogue of Life                                   (15 août 2017) :
 Plukenetia africana Sond.
 Plukenetia ankaranensis L.J.Gillespie
 Plukenetia brachybotrya Müll.Arg.
@@ -536,12 +550,12 @@
 Plukenetia supraglandulosa L.J.Gillespie
 Plukenetia verrucosa Sm.
 Plukenetia volubilis L.
-Selon GRIN            (15 août 2017)[4] :
+Selon GRIN            (15 août 2017) :
 Plukenetia conophora Müll. Arg.
 Plukenetia volubilis L.
-Selon ITIS      (15 août 2017)[5] :
+Selon ITIS      (15 août 2017) :
 Plukenetia conophora Müll. Arg.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 août 2017)[6] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 août 2017) :
 Plukenetia africana Sond. (1850)
 Plukenetia ankaranensis L.J.Gillespie (2007)
 Plukenetia brachybotrya Müll.Arg. (1865)
@@ -562,7 +576,7 @@
 Plukenetia supraglandulosa L.J.Gillespie (1993)
 Plukenetia verrucosa Sm. (1799)
 Plukenetia volubilis L. (1753)
-Selon NCBI  (15 août 2017)[7] :
+Selon NCBI  (15 août 2017) :
 Plukenetia ankaranensis
 Plukenetia brachybotrya
 Plukenetia carabiasiae
@@ -577,7 +591,7 @@
 Plukenetia stipellata
 Plukenetia supraglandulosa
 Plukenetia volubilis
-Selon The Plant List            (15 août 2017)[8] :
+Selon The Plant List            (15 août 2017) :
 Plukenetia africana Sond.
 Plukenetia ankaranensis L.J.Gillespie
 Plukenetia brachybotrya Müll.Arg.
@@ -598,7 +612,7 @@
 Plukenetia supraglandulosa L.J.Gillespie
 Plukenetia verrucosa Sm.
 Plukenetia volubilis L.
-Selon Tropicos                                           (15 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Plukenetia abutifolia (Ducke) Pax &amp; K. Hoffm.
 Plukenetia africana Sond.
 Plukenetia angustifolia Standl.
